--- a/biology/Botanique/Tillandsia_platyphylla/Tillandsia_platyphylla.xlsx
+++ b/biology/Botanique/Tillandsia_platyphylla/Tillandsia_platyphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia platyphylla Mez est une plante de la famille des Bromeliaceae.
 L'épithète platyphylla signifie « à large feuille ».
@@ -512,14 +524,16 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia platyphylla Mez, in Repert. Spec. Nov. Regni Veg. 3: 37 (1906) (pro « patyphylla »)
 Nb : la graphie du protologue est « patyphylla » mais c'est une coquille d'imprimerie et elle doit donc être corrigée en « platyphilla ».
-Diagnose originale[1] :
+Diagnose originale :
 « Statura maxima: foliis rosulatis, utrinque subglabris. latitudine maxima (+/- 0,1 m)[sic] perinsignibus; inflorescentia ut videtur amplissima, 3-pinnatim panniculata[sic], spicis per anthesin subpinnatis, ad 20-floris, valde elongatis angustisque, bracteas primarias secundariasque permulto superantibus; bracteis florigeris nullo modo carinatis, apice late rotundatis, sepala optime superantibus; floribus erectis; sepalis subaequaliter breviter connatis; petalis genitalia superantibus. »
 Type :
-leg. A. Weberbauer, no 3888, 1904-05-02 ; « Peruvia, dept. Cajamarca, inter San Pablo et San Miguel, alt. 1 700 m »[1] ; « Peru: zwischen San Pablo und San Miguel, Dep. Cajamarca. Felsen -1 700 m » ; Holotypus B (B 10 0243491). Nb : ce spécimen d'herbier est étiqueté comme « Lectotype » de T. platyphylla, ce qui parait inapproprié puisque Mez cite[1] explicitement et complètement ce seul spécimen comme type et il s'agirait donc bien de l'holotype. Quant aux deux spécimens qui suivent, ils correspondent plutôt à des isotypes qu’à une partie de l’holotype, car la numérotation des feuilles d’herbier est incertaine (de simples « I » à « III » au crayon à papier, ajoutés sur les feuilles en dehors de l’étiquette originale - voir ICBN Art. 8.3)
+leg. A. Weberbauer, no 3888, 1904-05-02 ; « Peruvia, dept. Cajamarca, inter San Pablo et San Miguel, alt. 1 700 m » ; « Peru: zwischen San Pablo und San Miguel, Dep. Cajamarca. Felsen -1 700 m » ; Holotypus B (B 10 0243491). Nb : ce spécimen d'herbier est étiqueté comme « Lectotype » de T. platyphylla, ce qui parait inapproprié puisque Mez cite explicitement et complètement ce seul spécimen comme type et il s'agirait donc bien de l'holotype. Quant aux deux spécimens qui suivent, ils correspondent plutôt à des isotypes qu’à une partie de l’holotype, car la numérotation des feuilles d’herbier est incertaine (de simples « I » à « III » au crayon à papier, ajoutés sur les feuilles en dehors de l’étiquette originale - voir ICBN Art. 8.3)
 leg. A. Weberbauer, no 3888 ; Isotypus B (B 10 0243492)
 leg. A. Weberbauer, no 3888 ; Isotypus B (B 10 0243493)</t>
         </is>
@@ -549,7 +563,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(aucune)</t>
         </is>
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,11 +623,13 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée en rosette ; saxicole[1],[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée en rosette ; saxicole,.
 Habitat : ?
-Altitude : 800 m[2], 1 700 m[1].</t>
+Altitude : 800 m, 1 700 m.</t>
         </is>
       </c>
     </row>
@@ -637,11 +657,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Amérique du Sud :
- Pérou[2]
-Cajamarca[1]</t>
+ Pérou
+Cajamarca</t>
         </is>
       </c>
     </row>
@@ -670,6 +692,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
